--- a/PREBG.xlsx
+++ b/PREBG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vikingbda-my.sharepoint.com/personal/henrik_viking_bm/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C377D47-D1B3-4557-B5B0-3997F3D94DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA556D5-5D84-4854-8B31-7192BF2FEFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{606A00F7-CF32-448D-8A01-E12698B172F7}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1266,47 +1266,47 @@
         <v>6</v>
       </c>
       <c r="D13" s="9">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" ref="E13:N14" si="0">D13+14</f>
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>44816</v>
+        <v>44815</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>44830</v>
+        <v>44829</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>44844</v>
+        <v>44843</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="0"/>
-        <v>44858</v>
+        <v>44857</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="0"/>
-        <v>44872</v>
+        <v>44871</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>44886</v>
+        <v>44885</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="0"/>
-        <v>44900</v>
+        <v>44899</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="0"/>
-        <v>44914</v>
+        <v>44913</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="0"/>
-        <v>44928</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1320,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="9">
-        <f>D13+23</f>
+        <f>D13+24</f>
         <v>44811</v>
       </c>
       <c r="E14" s="9">

--- a/PREBG.xlsx
+++ b/PREBG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA556D5-5D84-4854-8B31-7192BF2FEFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32824CD9-2994-4264-901D-F9F6355E36C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{606A00F7-CF32-448D-8A01-E12698B172F7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{606A00F7-CF32-448D-8A01-E12698B172F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
   <si>
     <t>VIKING FOOD, LTD</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>THIS IS CURRENTLY UNDER TEST (PLEASE CONTACT YOU SALES PERSON PRIOR TO ORDERING)</t>
+  </si>
+  <si>
+    <t>ALL ORDERS SUBJECT TO TERMS</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +557,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -623,7 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -706,6 +715,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,13 +741,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99061</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3307081</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>93572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -805,13 +815,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8414</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>320039</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1175,239 +1185,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8180FDCB-FC7A-4196-9652-63227251FCF8}">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>44787</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" ref="E13:N14" si="0">D13+14</f>
+      <c r="E14" s="9">
+        <f t="shared" ref="E14:N15" si="0">D14+14</f>
         <v>44801</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>44815</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>44829</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>44843</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>44857</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>44871</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <f t="shared" si="0"/>
         <v>44885</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <f t="shared" si="0"/>
         <v>44899</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="9">
         <f t="shared" si="0"/>
         <v>44913</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <f t="shared" si="0"/>
         <v>44927</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9">
-        <f>D13+24</f>
+      <c r="D15" s="9">
+        <f>D14+24</f>
         <v>44811</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>44825</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>44839</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>44853</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>44867</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>44881</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>44895</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <f t="shared" si="0"/>
         <v>44909</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <f t="shared" si="0"/>
         <v>44923</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M15" s="9">
         <f t="shared" si="0"/>
         <v>44937</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <f t="shared" si="0"/>
         <v>44951</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>15</v>
@@ -1424,15 +1417,15 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1446,15 +1439,15 @@
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1468,15 +1461,15 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1490,15 +1483,15 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1512,12 +1505,12 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>15</v>
@@ -1534,12 +1527,12 @@
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>15</v>
@@ -1556,15 +1549,15 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1578,15 +1571,15 @@
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1600,12 +1593,12 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>37</v>
@@ -1622,15 +1615,15 @@
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -1644,52 +1637,52 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>46</v>
@@ -1706,52 +1699,52 @@
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>52</v>
@@ -1768,12 +1761,12 @@
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>52</v>
@@ -1790,15 +1783,15 @@
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1812,15 +1805,15 @@
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1834,15 +1827,15 @@
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1856,12 +1849,12 @@
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>64</v>
@@ -1878,12 +1871,12 @@
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>64</v>
@@ -1900,55 +1893,55 @@
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -1962,15 +1955,15 @@
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1984,15 +1977,15 @@
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -2006,10 +1999,16 @@
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="22"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -2022,16 +2021,10 @@
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>79</v>
-      </c>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -2044,52 +2037,52 @@
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="17" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>76</v>
@@ -2106,12 +2099,12 @@
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>76</v>
@@ -2128,12 +2121,12 @@
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>76</v>
@@ -2150,12 +2143,12 @@
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>76</v>
@@ -2172,12 +2165,12 @@
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>76</v>
@@ -2194,12 +2187,12 @@
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>76</v>
@@ -2216,12 +2209,12 @@
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>76</v>
@@ -2238,12 +2231,12 @@
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>76</v>
@@ -2260,43 +2253,40 @@
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>44732</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="9">
-        <f>D58+23</f>
-        <v>44755</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2309,52 +2299,55 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="17" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="9">
+        <f>D59+23</f>
+        <v>44755</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>52</v>
@@ -2371,12 +2364,12 @@
       <c r="M62" s="26"/>
       <c r="N62" s="26"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>52</v>
@@ -2393,12 +2386,12 @@
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>52</v>
@@ -2415,12 +2408,12 @@
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>52</v>
@@ -2437,12 +2430,12 @@
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>52</v>
@@ -2459,12 +2452,12 @@
       <c r="M66" s="26"/>
       <c r="N66" s="26"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>52</v>
@@ -2481,10 +2474,16 @@
       <c r="M67" s="26"/>
       <c r="N67" s="26"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="22"/>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
@@ -2497,16 +2496,10 @@
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>76</v>
-      </c>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -2519,10 +2512,16 @@
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
@@ -2535,16 +2534,10 @@
       <c r="M70" s="26"/>
       <c r="N70" s="26"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>116</v>
-      </c>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -2557,12 +2550,12 @@
       <c r="M71" s="26"/>
       <c r="N71" s="26"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>116</v>
@@ -2579,47 +2572,47 @@
       <c r="M72" s="26"/>
       <c r="N72" s="26"/>
     </row>
-    <row r="73" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>122</v>
-      </c>
+      <c r="C75" s="30"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -2632,15 +2625,15 @@
       <c r="M75" s="26"/>
       <c r="N75" s="26"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
@@ -2654,15 +2647,15 @@
       <c r="M76" s="26"/>
       <c r="N76" s="26"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -2676,12 +2669,12 @@
       <c r="M77" s="26"/>
       <c r="N77" s="26"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>128</v>
@@ -2698,10 +2691,16 @@
       <c r="M78" s="26"/>
       <c r="N78" s="26"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
@@ -2714,16 +2713,10 @@
       <c r="M79" s="26"/>
       <c r="N79" s="26"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>76</v>
-      </c>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
@@ -2736,15 +2729,15 @@
       <c r="M80" s="26"/>
       <c r="N80" s="26"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -2758,12 +2751,12 @@
       <c r="M81" s="26"/>
       <c r="N81" s="26"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>52</v>
@@ -2780,42 +2773,51 @@
       <c r="M82" s="26"/>
       <c r="N82" s="26"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-    </row>
-    <row r="84" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-    </row>
-    <row r="85" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+    </row>
+    <row r="85" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -2828,7 +2830,7 @@
       <c r="M85" s="32"/>
       <c r="N85" s="32"/>
     </row>
-    <row r="86" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
@@ -2841,7 +2843,7 @@
       <c r="M86" s="32"/>
       <c r="N86" s="32"/>
     </row>
-    <row r="87" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
@@ -2854,7 +2856,7 @@
       <c r="M87" s="32"/>
       <c r="N87" s="32"/>
     </row>
-    <row r="88" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D88" s="32"/>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
@@ -2867,7 +2869,7 @@
       <c r="M88" s="32"/>
       <c r="N88" s="32"/>
     </row>
-    <row r="89" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D89" s="32"/>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -2880,7 +2882,7 @@
       <c r="M89" s="32"/>
       <c r="N89" s="32"/>
     </row>
-    <row r="90" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D90" s="32"/>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -2893,7 +2895,7 @@
       <c r="M90" s="32"/>
       <c r="N90" s="32"/>
     </row>
-    <row r="91" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
@@ -2906,7 +2908,7 @@
       <c r="M91" s="32"/>
       <c r="N91" s="32"/>
     </row>
-    <row r="92" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D92" s="32"/>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
@@ -2919,7 +2921,7 @@
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
     </row>
-    <row r="93" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
@@ -2932,7 +2934,7 @@
       <c r="M93" s="32"/>
       <c r="N93" s="32"/>
     </row>
-    <row r="94" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D94" s="32"/>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
@@ -2945,7 +2947,7 @@
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
     </row>
-    <row r="95" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D95" s="32"/>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
@@ -2958,7 +2960,7 @@
       <c r="M95" s="32"/>
       <c r="N95" s="32"/>
     </row>
-    <row r="96" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D96" s="32"/>
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
@@ -2971,7 +2973,7 @@
       <c r="M96" s="32"/>
       <c r="N96" s="32"/>
     </row>
-    <row r="97" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D97" s="32"/>
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
@@ -2984,7 +2986,7 @@
       <c r="M97" s="32"/>
       <c r="N97" s="32"/>
     </row>
-    <row r="98" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D98" s="32"/>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
@@ -2997,7 +2999,7 @@
       <c r="M98" s="32"/>
       <c r="N98" s="32"/>
     </row>
-    <row r="99" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D99" s="32"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
@@ -3010,7 +3012,7 @@
       <c r="M99" s="32"/>
       <c r="N99" s="32"/>
     </row>
-    <row r="100" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D100" s="32"/>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
@@ -3023,7 +3025,7 @@
       <c r="M100" s="32"/>
       <c r="N100" s="32"/>
     </row>
-    <row r="101" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D101" s="32"/>
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
@@ -3036,7 +3038,7 @@
       <c r="M101" s="32"/>
       <c r="N101" s="32"/>
     </row>
-    <row r="102" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
@@ -3049,7 +3051,7 @@
       <c r="M102" s="32"/>
       <c r="N102" s="32"/>
     </row>
-    <row r="103" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
@@ -3062,7 +3064,7 @@
       <c r="M103" s="32"/>
       <c r="N103" s="32"/>
     </row>
-    <row r="104" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
@@ -3075,20 +3077,20 @@
       <c r="M104" s="32"/>
       <c r="N104" s="32"/>
     </row>
-    <row r="105" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+    </row>
+    <row r="106" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -3101,7 +3103,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -3114,7 +3116,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -3127,7 +3129,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -3140,7 +3142,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -3153,7 +3155,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -3166,7 +3168,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -3179,7 +3181,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -3192,7 +3194,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -3205,7 +3207,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -3218,7 +3220,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -3231,7 +3233,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3244,7 +3246,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -3257,7 +3259,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -3270,7 +3272,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -3283,7 +3285,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -3296,7 +3298,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -3309,7 +3311,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -3322,7 +3324,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -3335,7 +3337,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -3348,7 +3350,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -3361,7 +3363,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -3374,7 +3376,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -3387,7 +3389,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -3400,7 +3402,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -3413,7 +3415,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -3426,7 +3428,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -3439,7 +3441,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -3452,7 +3454,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -3465,7 +3467,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -3478,7 +3480,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -3491,7 +3493,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -3504,7 +3506,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -3517,7 +3519,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -3530,7 +3532,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -3543,7 +3545,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -3556,7 +3558,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -3569,7 +3571,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -3582,7 +3584,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -3595,7 +3597,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -3608,7 +3610,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -3621,7 +3623,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -3634,7 +3636,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -3647,7 +3649,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -3660,7 +3662,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -3673,7 +3675,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -3686,7 +3688,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -3699,7 +3701,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -3712,7 +3714,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -3725,7 +3727,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -3738,7 +3740,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -3751,7 +3753,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -3764,7 +3766,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -3777,7 +3779,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -3790,7 +3792,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -3803,7 +3805,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -3816,7 +3818,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -3829,7 +3831,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -3842,7 +3844,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -3855,7 +3857,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -3868,7 +3870,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -3881,7 +3883,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -3894,7 +3896,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -3907,7 +3909,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="4:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -3920,6 +3922,19 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
+    <row r="170" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PREBG.xlsx
+++ b/PREBG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32824CD9-2994-4264-901D-F9F6355E36C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7089E4-188D-4F49-9457-23729D71E0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{606A00F7-CF32-448D-8A01-E12698B172F7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
   <si>
     <t>VIKING FOOD, LTD</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t xml:space="preserve">Insert Customer NO: </t>
-  </si>
-  <si>
-    <t>THIS IS CURRENTLY UNDER TEST (PLEASE CONTACT YOU SALES PERSON PRIOR TO ORDERING)</t>
   </si>
   <si>
     <t>ALL ORDERS SUBJECT TO TERMS</t>
@@ -741,13 +738,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99061</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3307081</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>93572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -815,13 +812,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8414</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>320039</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1185,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8180FDCB-FC7A-4196-9652-63227251FCF8}">
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1201,206 +1198,223 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>139</v>
+      <c r="B2" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
+      <c r="B3" s="33"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>44787</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" ref="E13:N14" si="0">D13+14</f>
+        <v>44801</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>44815</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>44829</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>44843</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
+        <v>44857</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>44871</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>44885</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>44899</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="0"/>
+        <v>44913</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="0"/>
+        <v>44927</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="9">
-        <v>44787</v>
+        <f>D13+24</f>
+        <v>44811</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" ref="E14:N15" si="0">D14+14</f>
-        <v>44801</v>
+        <f t="shared" si="0"/>
+        <v>44825</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>44815</v>
+        <v>44839</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>44829</v>
+        <v>44853</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>44843</v>
+        <v>44867</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="0"/>
-        <v>44857</v>
+        <v>44881</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="0"/>
-        <v>44871</v>
+        <v>44895</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="0"/>
-        <v>44885</v>
+        <v>44909</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="0"/>
-        <v>44899</v>
+        <v>44923</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="0"/>
-        <v>44913</v>
+        <v>44937</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="0"/>
-        <v>44927</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9">
-        <f>D14+24</f>
-        <v>44811</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>44825</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>44839</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="0"/>
-        <v>44853</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="0"/>
-        <v>44867</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="0"/>
-        <v>44881</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="0"/>
-        <v>44895</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="0"/>
-        <v>44909</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="0"/>
-        <v>44923</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="0"/>
-        <v>44937</v>
-      </c>
-      <c r="N15" s="9">
-        <f t="shared" si="0"/>
-        <v>44951</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>15</v>
@@ -1419,13 +1433,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1441,13 +1455,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1463,13 +1477,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1485,13 +1499,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1507,10 +1521,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>15</v>
@@ -1529,10 +1543,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>15</v>
@@ -1551,13 +1565,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1573,13 +1587,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1595,10 +1609,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>37</v>
@@ -1617,13 +1631,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -1638,51 +1652,51 @@
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="A30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>46</v>
@@ -1700,51 +1714,51 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="A33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>52</v>
@@ -1763,10 +1777,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>52</v>
@@ -1785,13 +1799,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1807,13 +1821,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1829,13 +1843,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1851,10 +1865,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>64</v>
@@ -1873,10 +1887,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>64</v>
@@ -1894,54 +1908,54 @@
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
+      <c r="C42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -1957,13 +1971,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1979,13 +1993,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -2000,15 +2014,9 @@
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -2022,9 +2030,15 @@
       <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="22"/>
+      <c r="A47" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -2038,51 +2052,51 @@
       <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
+      <c r="A49" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>76</v>
@@ -2101,10 +2115,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>76</v>
@@ -2123,10 +2137,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>76</v>
@@ -2145,10 +2159,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>76</v>
@@ -2167,10 +2181,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>76</v>
@@ -2189,10 +2203,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>76</v>
@@ -2211,10 +2225,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>76</v>
@@ -2233,10 +2247,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>76</v>
@@ -2254,39 +2268,42 @@
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
+      <c r="A58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="9">
+        <v>44732</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59" s="9">
-        <v>44732</v>
+        <f>D58+23</f>
+        <v>44755</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2300,54 +2317,51 @@
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="9">
-        <f>D59+23</f>
-        <v>44755</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
+      <c r="A61" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>52</v>
@@ -2366,10 +2380,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>52</v>
@@ -2388,10 +2402,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>52</v>
@@ -2410,10 +2424,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>52</v>
@@ -2432,10 +2446,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>52</v>
@@ -2454,10 +2468,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>52</v>
@@ -2475,15 +2489,9 @@
       <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
@@ -2497,9 +2505,15 @@
       <c r="N68" s="26"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="22"/>
+      <c r="A69" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -2513,15 +2527,9 @@
       <c r="N69" s="26"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
@@ -2535,9 +2543,15 @@
       <c r="N70" s="26"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
+      <c r="A71" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -2552,10 +2566,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>116</v>
@@ -2572,47 +2586,47 @@
       <c r="M72" s="26"/>
       <c r="N72" s="26"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-    </row>
-    <row r="74" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
+    <row r="73" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="30"/>
+      <c r="A75" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>122</v>
+      </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -2627,13 +2641,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
@@ -2649,13 +2663,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -2671,10 +2685,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>128</v>
@@ -2692,15 +2706,9 @@
       <c r="N78" s="26"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>128</v>
-      </c>
+      <c r="A79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
@@ -2714,9 +2722,15 @@
       <c r="N79" s="26"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
+      <c r="A80" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
@@ -2731,13 +2745,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -2753,10 +2767,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>52</v>
@@ -2775,47 +2789,38 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
     </row>
     <row r="85" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D85" s="32"/>
@@ -3078,17 +3083,17 @@
       <c r="N104" s="32"/>
     </row>
     <row r="105" spans="4:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
     </row>
     <row r="106" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D106" s="4"/>
@@ -3922,19 +3927,6 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="4:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
